--- a/biology/Zoologie/Eremotherium/Eremotherium.xlsx
+++ b/biology/Zoologie/Eremotherium/Eremotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremotherium est un genre fossile de paresseux terrestres de la famille des Megatheriidae, qui vivait de l'Amérique du Nord à l'Amérique du Sud durant le Pliocène et le Pléistocène. Il s'est éteint il y a seulement environ 11 300 ans.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eremotherium a été créé en 1948 par le paléontologue autrichien Franz Spillmann (d) (1901-1988). L'espèce type, Eremotherium laurillardi, avait été décrite par le paléontologue danois Peter Wilhelm Lund un siècle plus tôt, en 1842, sur la base d'un fossile fragmentaire trouvé au Brésil. On a trouvé depuis de nombreux spécimens fossiles complets ou quasi complets de cet animal.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dressé sur ses pattes, ce paresseux géant pouvait mesurer jusqu'à 4 m de hauteur. Il pesait jusqu'à 4 tonnes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dressé sur ses pattes, ce paresseux géant pouvait mesurer jusqu'à 4 m de hauteur. Il pesait jusqu'à 4 tonnes.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremotherium a vécu du Pliocène jusqu'au début de l'Holocène. Il s'est éteint il y a environ 11 300 ans.
 </t>
@@ -604,7 +622,9 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremotherium vivait de la Caroline du Sud, aux États-Unis, jusqu'au Brésil.
 </t>
@@ -635,9 +655,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme des Megatheriinae ci-dessous a été proposé par Brandoni et al. en 2018[2], et amendé par Varela et al. en 2019, sur la base des molaires inférieures et de la forme de l'astragale[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme des Megatheriinae ci-dessous a été proposé par Brandoni et al. en 2018, et amendé par Varela et al. en 2019, sur la base des molaires inférieures et de la forme de l'astragale.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Eremotherium laurillardi (Lund, 1842)
 Eremotherium eomigrans (De Iullis &amp; Cartelle, 1999)</t>
